--- a/output/DiagnosticReport/observation-path-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-path-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="468">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -481,7 +481,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -496,10 +496,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -575,13 +572,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,7 +691,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1010,6 +1001,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1449,6 +1443,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1671,7 +1671,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3396,11 +3396,9 @@
       <c r="W15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3433,19 +3431,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3453,7 +3451,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3476,19 +3474,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3498,7 +3496,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3516,11 +3514,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3537,7 +3535,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3561,10 +3559,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3572,11 +3570,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3595,19 +3593,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3632,13 +3630,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3656,7 +3652,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3671,27 +3667,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3717,10 +3713,10 @@
         <v>57</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3771,7 +3767,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3795,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3806,7 +3802,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3832,10 +3828,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>116</v>
@@ -3879,7 +3875,7 @@
         <v>103</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3888,7 +3884,7 @@
         <v>104</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3912,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3923,7 +3919,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3946,19 +3942,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3995,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4005,7 +4001,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4026,10 +4022,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4040,10 +4036,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4065,19 +4061,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4106,7 +4102,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4124,7 +4120,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4145,10 +4141,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4159,7 +4155,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4185,16 +4181,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4243,7 +4239,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4264,10 +4260,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4278,7 +4274,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4301,19 +4297,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4362,7 +4358,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4377,19 +4373,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4397,7 +4393,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4420,16 +4416,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4479,7 +4475,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4500,13 +4496,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4514,11 +4510,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4537,19 +4533,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4598,7 +4594,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4613,19 +4609,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4633,11 +4629,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4656,19 +4652,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4717,7 +4713,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4732,19 +4728,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4752,7 +4748,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4775,16 +4771,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4834,7 +4830,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4855,13 +4851,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4869,7 +4865,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4892,17 +4888,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4951,7 +4947,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4966,19 +4962,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4986,7 +4982,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5009,19 +5005,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5070,7 +5066,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5079,7 +5075,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5088,24 +5084,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5128,19 +5124,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5165,13 +5161,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5189,7 +5185,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5198,7 +5194,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5213,7 +5209,7 @@
         <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5224,11 +5220,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5247,19 +5243,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5284,13 +5280,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5308,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5326,24 +5322,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5366,19 +5362,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5427,7 +5423,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5448,10 +5444,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5462,7 +5458,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5485,16 +5481,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5520,13 +5516,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5544,7 +5540,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5562,24 +5558,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5602,19 +5598,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5639,13 +5635,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5663,7 +5659,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5684,10 +5680,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5698,7 +5694,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5721,16 +5717,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5780,7 +5776,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5798,24 +5794,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5838,16 +5834,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5897,7 +5893,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5915,24 +5911,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5955,19 +5951,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6016,7 +6012,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6028,19 +6024,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6051,7 +6047,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6077,10 +6073,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6131,7 +6127,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6155,7 +6151,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6166,7 +6162,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6192,10 +6188,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
@@ -6248,7 +6244,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6272,7 +6268,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6283,11 +6279,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6309,10 +6305,10 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>116</v>
@@ -6367,7 +6363,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6402,7 +6398,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6425,13 +6421,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6482,7 +6478,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6491,7 +6487,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6503,10 +6499,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6517,7 +6513,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6540,13 +6536,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6597,7 +6593,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6606,7 +6602,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6618,10 +6614,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6632,7 +6628,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6655,19 +6651,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6695,10 +6691,10 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6716,7 +6712,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6734,13 +6730,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6751,7 +6747,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6774,19 +6770,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6811,13 +6807,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6835,7 +6831,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6853,13 +6849,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6870,7 +6866,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6893,17 +6889,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6952,7 +6948,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6976,7 +6972,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6987,7 +6983,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7013,10 +7009,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7067,7 +7063,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7088,10 +7084,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7102,7 +7098,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7125,16 +7121,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7184,7 +7180,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7205,10 +7201,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7219,7 +7215,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7245,10 +7241,10 @@
         <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7299,7 +7295,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7323,7 +7319,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7334,7 +7330,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7360,10 +7356,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>116</v>
@@ -7407,7 +7403,7 @@
         <v>103</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
@@ -7416,7 +7412,7 @@
         <v>104</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7440,7 +7436,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7451,7 +7447,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7477,13 +7473,13 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7533,7 +7529,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7542,7 +7538,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7568,7 +7564,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7594,13 +7590,13 @@
         <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7626,31 +7622,31 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7685,7 +7681,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7711,13 +7707,13 @@
         <v>120</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7767,7 +7763,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7791,7 +7787,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7802,7 +7798,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7828,13 +7824,13 @@
         <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7884,7 +7880,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7919,7 +7915,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7942,16 +7938,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8001,7 +7997,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8022,10 +8018,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8036,7 +8032,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8059,19 +8055,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8120,7 +8116,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8141,10 +8137,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8155,7 +8151,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8181,10 +8177,10 @@
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8235,7 +8231,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8259,7 +8255,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8270,7 +8266,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8296,10 +8292,10 @@
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
@@ -8352,7 +8348,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8376,7 +8372,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8387,11 +8383,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8413,10 +8409,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>116</v>
@@ -8471,7 +8467,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8506,7 +8502,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8529,19 +8525,19 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8566,13 +8562,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>177</v>
+        <v>453</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8590,7 +8586,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>55</v>
@@ -8611,13 +8607,13 @@
         <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8648,19 +8644,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>457</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8730,16 +8726,16 @@
         <v>459</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8767,7 +8763,7 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>461</v>
@@ -8779,7 +8775,7 @@
         <v>463</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8804,13 +8800,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8837,7 +8833,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8852,7 +8848,7 @@
         <v>98</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8867,7 +8863,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8886,19 +8882,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8923,13 +8919,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8965,19 +8961,19 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -9014,10 +9010,10 @@
         <v>467</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9087,10 +9083,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-path-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-path-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="467">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-02:One category shall be 'laboratory' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='laboratory').exists()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -531,14 +531,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -3496,7 +3488,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3514,10 +3506,10 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3559,10 +3551,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3570,11 +3562,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3596,16 +3588,16 @@
         <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3634,7 +3626,7 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3652,7 +3644,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3667,27 +3659,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3713,10 +3705,10 @@
         <v>57</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3767,7 +3759,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3791,7 +3783,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3802,7 +3794,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3828,10 +3820,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>116</v>
@@ -3875,7 +3867,7 @@
         <v>103</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3884,7 +3876,7 @@
         <v>104</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3908,7 +3900,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3919,7 +3911,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3942,19 +3934,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3991,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4001,7 +3993,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4022,10 +4014,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4036,10 +4028,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4061,19 +4053,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4102,7 +4094,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4120,7 +4112,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4141,10 +4133,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4155,7 +4147,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4181,16 +4173,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4239,7 +4231,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4260,10 +4252,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4274,7 +4266,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4297,19 +4289,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4358,7 +4350,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4373,19 +4365,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4393,7 +4385,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4416,16 +4408,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4475,7 +4467,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4496,13 +4488,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4510,11 +4502,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4533,19 +4525,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4594,7 +4586,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4609,19 +4601,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4629,11 +4621,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4652,19 +4644,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4713,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4728,19 +4720,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4748,7 +4740,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4771,16 +4763,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4830,7 +4822,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4851,13 +4843,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4865,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4888,17 +4880,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4947,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4962,19 +4954,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4982,7 +4974,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5005,19 +4997,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5066,7 +5058,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5075,7 +5067,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5084,24 +5076,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5127,16 +5119,16 @@
         <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5161,14 +5153,14 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5185,7 +5177,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5194,7 +5186,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5209,7 +5201,7 @@
         <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5220,11 +5212,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5246,16 +5238,16 @@
         <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5280,14 +5272,14 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5304,7 +5296,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5322,24 +5314,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5362,19 +5354,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5423,7 +5415,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5444,10 +5436,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5458,7 +5450,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5484,13 +5476,13 @@
         <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5516,14 +5508,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5540,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5558,24 +5550,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5601,16 +5593,16 @@
         <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5635,14 +5627,14 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5659,7 +5651,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5680,10 +5672,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5694,7 +5686,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5717,16 +5709,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5776,7 +5768,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5794,24 +5786,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5834,16 +5826,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5893,7 +5885,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5911,24 +5903,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5951,19 +5943,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6012,7 +6004,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6024,19 +6016,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6047,7 +6039,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6073,10 +6065,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6127,7 +6119,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6151,7 +6143,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6162,7 +6154,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6188,10 +6180,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
@@ -6244,7 +6236,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6268,7 +6260,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6279,11 +6271,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6305,10 +6297,10 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>116</v>
@@ -6363,7 +6355,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6398,7 +6390,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6421,13 +6413,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6478,7 +6470,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6487,7 +6479,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6499,10 +6491,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6513,7 +6505,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6536,13 +6528,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6593,7 +6585,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6602,7 +6594,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6614,10 +6606,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6628,7 +6620,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6654,16 +6646,16 @@
         <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6691,11 +6683,11 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6712,7 +6704,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6730,13 +6722,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6747,7 +6739,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6773,16 +6765,16 @@
         <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6807,14 +6799,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6831,7 +6823,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6849,13 +6841,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6866,7 +6858,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6889,17 +6881,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6948,7 +6940,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6972,7 +6964,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6983,7 +6975,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7009,10 +7001,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7063,7 +7055,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7084,10 +7076,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7098,7 +7090,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7121,16 +7113,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7180,7 +7172,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7201,10 +7193,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7215,7 +7207,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7241,10 +7233,10 @@
         <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7295,7 +7287,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7319,7 +7311,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7330,7 +7322,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7356,10 +7348,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>116</v>
@@ -7403,7 +7395,7 @@
         <v>103</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
@@ -7412,7 +7404,7 @@
         <v>104</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7436,7 +7428,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7447,7 +7439,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7473,13 +7465,13 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7529,7 +7521,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7538,7 +7530,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7564,7 +7556,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7590,13 +7582,13 @@
         <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7622,31 +7614,31 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7681,7 +7673,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7707,13 +7699,13 @@
         <v>120</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7763,7 +7755,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7787,7 +7779,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7798,7 +7790,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7824,13 +7816,13 @@
         <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7880,7 +7872,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7915,7 +7907,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7938,16 +7930,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7997,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8018,10 +8010,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8032,7 +8024,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8055,19 +8047,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8116,7 +8108,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8137,10 +8129,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8151,7 +8143,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8177,10 +8169,10 @@
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8231,7 +8223,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8255,7 +8247,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8266,7 +8258,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8292,10 +8284,10 @@
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
@@ -8348,7 +8340,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8372,7 +8364,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8383,11 +8375,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8409,10 +8401,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>116</v>
@@ -8467,7 +8459,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8502,7 +8494,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8528,16 +8520,16 @@
         <v>159</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8562,14 +8554,14 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8586,7 +8578,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>55</v>
@@ -8604,16 +8596,16 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8621,7 +8613,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8644,19 +8636,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8705,7 +8697,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8723,24 +8715,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8766,16 +8758,16 @@
         <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8800,14 +8792,14 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="X61" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="X61" t="s" s="2">
+      <c r="Y61" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8824,7 +8816,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8833,7 +8825,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8848,7 +8840,7 @@
         <v>98</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8859,11 +8851,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8885,16 +8877,16 @@
         <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8919,14 +8911,14 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8943,7 +8935,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8961,24 +8953,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9004,16 +8996,16 @@
         <v>45</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9062,7 +9054,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9083,10 +9075,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-path-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-path-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -618,6 +618,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
@@ -634,10 +637,6 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -645,15 +644,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1630,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3913,7 +3903,9 @@
       <c r="A20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3922,7 +3914,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3934,19 +3926,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3983,14 +3975,16 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>198</v>
@@ -4028,11 +4022,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>201</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4041,7 +4033,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4053,19 +4045,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4090,11 +4082,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4112,13 +4106,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4133,10 +4127,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4145,9 +4139,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4155,13 +4149,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4170,19 +4164,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4246,27 +4240,27 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4274,13 +4268,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4289,20 +4283,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4350,13 +4342,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4365,19 +4357,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4385,18 +4377,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4408,18 +4400,20 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4467,13 +4461,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4482,41 +4476,41 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4525,19 +4519,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4586,7 +4580,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4601,41 +4595,41 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4644,20 +4638,18 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4705,7 +4697,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4720,19 +4712,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4740,7 +4732,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4751,7 +4743,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4763,18 +4755,18 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4822,13 +4814,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4837,19 +4829,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4857,7 +4849,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4868,7 +4860,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4880,17 +4872,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4939,42 +4933,42 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4994,22 +4988,22 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5034,13 +5028,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5058,7 +5052,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5067,7 +5061,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5076,35 +5070,35 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5119,16 +5113,16 @@
         <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5153,40 +5147,40 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5195,28 +5189,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5235,19 +5229,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5272,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5296,7 +5290,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5314,24 +5308,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5342,7 +5336,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5354,20 +5348,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5391,13 +5383,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5415,13 +5407,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5433,24 +5425,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5476,15 +5468,17 @@
         <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5508,13 +5502,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5532,7 +5526,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5550,24 +5544,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5590,20 +5584,18 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5627,31 +5619,31 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5669,24 +5661,24 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5709,16 +5701,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5768,7 +5760,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5786,24 +5778,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5814,7 +5806,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5826,18 +5818,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5885,42 +5879,42 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5931,7 +5925,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5943,20 +5937,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6004,19 +5994,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -6025,10 +6015,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6039,18 +6029,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6062,15 +6052,17 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6119,19 +6111,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6154,11 +6146,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6171,24 +6163,26 @@
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6236,7 +6230,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6260,7 +6254,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6271,43 +6265,39 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6355,19 +6345,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6376,10 +6366,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6390,7 +6380,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6413,13 +6403,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6470,7 +6460,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6479,7 +6469,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6491,10 +6481,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6505,7 +6495,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6528,16 +6518,20 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6561,13 +6555,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6585,7 +6579,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6594,7 +6588,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6603,13 +6597,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6620,7 +6614,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6631,7 +6625,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6646,16 +6640,16 @@
         <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6680,37 +6674,37 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6722,13 +6716,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6739,7 +6733,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6750,7 +6744,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6762,19 +6756,17 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6799,13 +6791,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6823,13 +6815,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6841,13 +6833,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6858,7 +6850,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6881,18 +6873,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6940,7 +6930,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6961,10 +6951,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6973,9 +6963,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6986,27 +6976,29 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7055,13 +7047,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -7076,10 +7068,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7088,9 +7080,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7101,29 +7093,27 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>400</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7172,19 +7162,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>184</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7193,10 +7183,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7207,18 +7197,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7230,15 +7220,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7275,31 +7267,31 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7322,18 +7314,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7342,19 +7334,19 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7392,31 +7384,31 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7428,7 +7420,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7439,7 +7431,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7447,7 +7439,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>55</v>
@@ -7462,16 +7454,16 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7497,13 +7489,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7513,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7530,7 +7522,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7556,7 +7548,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7579,16 +7571,16 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7614,13 +7606,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7638,7 +7630,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7662,7 +7654,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7673,7 +7665,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7696,16 +7688,16 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7755,7 +7747,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7779,7 +7771,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7790,7 +7782,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7801,7 +7793,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7813,16 +7805,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7872,13 +7864,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7893,10 +7885,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>98</v>
+        <v>434</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7907,7 +7899,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7918,7 +7910,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7930,18 +7922,20 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7989,7 +7983,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8010,10 +8004,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8024,7 +8018,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8035,7 +8029,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8044,23 +8038,19 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8108,19 +8098,19 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8129,10 +8119,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>185</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8143,18 +8133,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8166,15 +8156,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8223,19 +8215,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8258,11 +8250,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8275,24 +8267,26 @@
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8340,7 +8334,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8364,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8375,42 +8369,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
+        <v>448</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8435,13 +8429,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8459,34 +8453,34 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8494,7 +8488,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8502,7 +8496,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>55</v>
@@ -8517,19 +8511,19 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8554,34 +8548,34 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AF59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>55</v>
@@ -8596,24 +8590,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8633,22 +8627,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8673,13 +8667,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8697,7 +8691,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8706,7 +8700,7 @@
         <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>67</v>
@@ -8715,35 +8709,35 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8758,16 +8752,16 @@
         <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>460</v>
+        <v>287</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>288</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>289</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8792,13 +8786,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8816,16 +8810,16 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8834,28 +8828,28 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8874,19 +8868,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>291</v>
+        <v>463</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8911,13 +8905,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8935,7 +8929,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8953,142 +8947,23 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9098,7 +8973,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-path-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="467">
   <si>
     <t>Path</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
@@ -637,6 +634,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -644,6 +645,15 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1620,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3903,9 +3913,7 @@
       <c r="A20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3926,19 +3934,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3975,16 +3983,14 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>198</v>
@@ -4022,9 +4028,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4045,19 +4053,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4082,13 +4090,11 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4106,13 +4112,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4127,10 +4133,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4139,9 +4145,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4149,13 +4155,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4164,19 +4170,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4240,27 +4246,27 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4268,13 +4274,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4283,18 +4289,20 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4342,13 +4350,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4357,19 +4365,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4377,18 +4385,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4400,20 +4408,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4461,13 +4467,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4476,41 +4482,41 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4519,19 +4525,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4580,7 +4586,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4595,41 +4601,41 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4638,18 +4644,20 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4712,19 +4720,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4732,7 +4740,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4743,7 +4751,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4755,18 +4763,18 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4814,13 +4822,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4829,19 +4837,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4849,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4860,7 +4868,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4872,19 +4880,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4933,42 +4939,42 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4988,22 +4994,22 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5028,13 +5034,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5052,7 +5058,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5061,7 +5067,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5070,35 +5076,35 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5113,16 +5119,16 @@
         <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5147,13 +5153,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5171,16 +5177,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5189,28 +5195,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5229,19 +5235,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5266,13 +5272,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5290,7 +5296,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5308,24 +5314,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5336,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5348,18 +5354,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5383,13 +5391,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5407,13 +5415,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5425,24 +5433,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5468,17 +5476,15 @@
         <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5502,13 +5508,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5526,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5544,24 +5550,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5584,18 +5590,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5619,13 +5627,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5643,7 +5651,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5661,24 +5669,24 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5701,16 +5709,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5760,7 +5768,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5778,24 +5786,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5806,7 +5814,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5818,20 +5826,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5879,42 +5885,42 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5925,7 +5931,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5937,16 +5943,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>57</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5994,19 +6004,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -6015,10 +6025,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6029,18 +6039,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6052,17 +6062,15 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6111,19 +6119,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6146,11 +6154,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6163,26 +6171,24 @@
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6230,7 +6236,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6254,7 +6260,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6265,39 +6271,43 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6345,19 +6355,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6366,10 +6376,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6380,7 +6390,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6403,13 +6413,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6460,7 +6470,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6469,7 +6479,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6481,10 +6491,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6495,7 +6505,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6518,20 +6528,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6555,13 +6561,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6579,7 +6585,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6588,7 +6594,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6597,13 +6603,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6614,7 +6620,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6625,7 +6631,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6640,16 +6646,16 @@
         <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6674,13 +6680,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6698,13 +6704,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6716,13 +6722,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6744,7 +6750,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6756,17 +6762,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6791,13 +6799,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6815,13 +6823,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6833,13 +6841,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6850,7 +6858,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6873,16 +6881,18 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6930,7 +6940,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6951,21 +6961,21 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6976,29 +6986,27 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7047,13 +7055,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -7068,10 +7076,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7080,9 +7088,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7093,27 +7101,29 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7162,19 +7172,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>184</v>
+        <v>399</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7183,10 +7193,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7197,18 +7207,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7220,17 +7230,15 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7267,31 +7275,31 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7314,18 +7322,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7334,19 +7342,19 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7384,31 +7392,31 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>190</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7420,7 +7428,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7431,7 +7439,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7439,7 +7447,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>55</v>
@@ -7454,16 +7462,16 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7489,13 +7497,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7513,7 +7521,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7522,7 +7530,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7548,7 +7556,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7571,16 +7579,16 @@
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7606,13 +7614,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7630,7 +7638,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7654,7 +7662,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>98</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7665,7 +7673,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7688,16 +7696,16 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7747,7 +7755,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7771,7 +7779,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7782,7 +7790,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7793,7 +7801,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7805,16 +7813,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7864,13 +7872,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7885,10 +7893,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>98</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7899,7 +7907,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7910,7 +7918,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7922,20 +7930,18 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8004,10 +8010,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8018,7 +8024,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8029,7 +8035,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8038,19 +8044,23 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>57</v>
+        <v>347</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8098,19 +8108,19 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8119,10 +8129,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>185</v>
+        <v>444</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8133,18 +8143,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8156,17 +8166,15 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8215,19 +8223,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8250,11 +8258,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8267,26 +8275,24 @@
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8358,7 +8364,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8369,42 +8375,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>448</v>
+        <v>116</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8429,13 +8435,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8453,34 +8459,34 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8496,7 +8502,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>55</v>
@@ -8511,19 +8517,19 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8548,13 +8554,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8572,10 +8578,10 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>55</v>
@@ -8590,24 +8596,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8627,22 +8633,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8667,13 +8673,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8691,7 +8697,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8700,7 +8706,7 @@
         <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>67</v>
@@ -8709,35 +8715,35 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8752,16 +8758,16 @@
         <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>288</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8786,13 +8792,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8810,16 +8816,16 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8828,28 +8834,28 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8868,19 +8874,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>290</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>291</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8905,13 +8911,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8929,7 +8935,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8947,23 +8953,142 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO62">
+  <autoFilter ref="A1:AO63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8973,7 +9098,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-path-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="444">
   <si>
     <t>Path</t>
   </si>
@@ -585,101 +585,6 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1131,7 +1036,28 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1297,6 +1223,9 @@
   </si>
   <si>
     <t>Observation.hasMember.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Observation.hasMember.reference</t>
@@ -1630,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1640,7 +1569,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3677,7 +3606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>181</v>
       </c>
@@ -3687,31 +3616,35 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3759,7 +3692,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3771,22 +3704,22 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3794,11 +3727,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3814,19 +3747,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3864,19 +3797,19 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3888,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
@@ -3897,13 +3830,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3911,18 +3844,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3934,19 +3867,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3983,23 +3916,25 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4008,43 +3943,41 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -4053,19 +3986,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4090,11 +4023,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4112,13 +4047,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4127,19 +4062,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4147,7 +4082,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4170,20 +4105,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4231,7 +4164,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4252,21 +4185,21 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4274,13 +4207,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4289,19 +4222,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4350,13 +4281,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4365,19 +4296,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4385,7 +4316,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4396,7 +4327,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4408,18 +4339,20 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4467,16 +4400,16 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4485,28 +4418,28 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4522,22 +4455,22 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4562,13 +4495,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4586,7 +4519,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4595,68 +4528,68 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4681,13 +4614,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4705,13 +4638,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4720,27 +4653,27 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4751,7 +4684,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4760,21 +4693,23 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4822,13 +4757,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4843,13 +4778,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4857,7 +4792,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4868,7 +4803,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4877,21 +4812,21 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4915,13 +4850,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4939,13 +4874,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4954,27 +4889,27 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4994,22 +4929,22 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5034,13 +4969,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5058,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5067,7 +5002,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5076,24 +5011,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5116,20 +5051,18 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5153,13 +5086,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5177,7 +5110,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5186,7 +5119,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5195,35 +5128,35 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5235,20 +5168,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5272,13 +5203,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5296,13 +5227,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5314,24 +5245,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5354,19 +5285,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5415,7 +5346,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5427,7 +5358,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5436,10 +5367,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5450,7 +5381,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5473,17 +5404,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5508,13 +5437,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5532,7 +5461,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5544,41 +5473,41 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5590,20 +5519,18 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5627,13 +5554,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5651,19 +5578,19 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5672,10 +5599,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5686,41 +5613,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5768,42 +5697,42 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5826,17 +5755,15 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M36" t="s" s="2">
         <v>341</v>
       </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5885,7 +5812,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5894,7 +5821,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5903,7 +5830,7 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>343</v>
@@ -5915,12 +5842,12 @@
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5931,7 +5858,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5943,20 +5870,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6004,19 +5927,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -6025,10 +5948,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6039,7 +5962,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6062,16 +5985,20 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6095,13 +6022,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6119,7 +6046,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6131,19 +6058,19 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6154,11 +6081,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6177,18 +6104,20 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6212,13 +6141,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6236,7 +6165,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6248,19 +6177,19 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6271,42 +6200,40 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6355,19 +6282,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6379,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6390,7 +6317,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6413,13 +6340,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>363</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6470,7 +6397,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6479,7 +6406,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6491,10 +6418,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6503,9 +6430,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6516,27 +6443,29 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6585,16 +6514,16 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6606,10 +6535,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6620,7 +6549,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6643,20 +6572,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6680,13 +6605,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6704,7 +6629,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6716,19 +6641,19 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6739,11 +6664,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6762,20 +6687,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6799,31 +6722,31 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6835,19 +6758,19 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6858,7 +6781,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6866,7 +6789,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>55</v>
@@ -6878,21 +6801,21 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6949,7 +6872,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6964,7 +6887,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>98</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6975,7 +6898,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6995,18 +6918,20 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7031,13 +6956,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7055,7 +6980,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7076,21 +7001,21 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7101,10 +7026,10 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7113,16 +7038,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7172,13 +7097,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7193,10 +7118,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7207,7 +7132,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7227,18 +7152,20 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>182</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7287,7 +7214,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7299,7 +7226,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7311,7 +7238,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7322,11 +7249,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7342,19 +7269,19 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7392,19 +7319,19 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7416,7 +7343,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7425,10 +7352,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7439,7 +7366,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7447,10 +7374,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7462,18 +7389,20 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7521,16 +7450,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7542,10 +7471,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>98</v>
+        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7556,7 +7485,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7576,20 +7505,18 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7614,13 +7541,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7638,7 +7565,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7650,7 +7577,7 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7662,7 +7589,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7673,18 +7600,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7693,19 +7620,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7755,19 +7682,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7779,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7790,41 +7717,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7872,19 +7801,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7907,7 +7836,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7915,10 +7844,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7930,18 +7859,20 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>433</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7965,13 +7896,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7989,13 +7920,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8007,16 +7938,16 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>178</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -8024,7 +7955,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8035,7 +7966,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8047,19 +7978,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
+        <v>239</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>442</v>
+        <v>241</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8108,13 +8039,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8126,24 +8057,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>245</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8166,16 +8097,20 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8199,13 +8134,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8223,7 +8158,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8232,10 +8167,10 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8244,10 +8179,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8258,11 +8193,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8281,18 +8216,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8316,13 +8253,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8340,7 +8277,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8352,34 +8289,34 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8392,25 +8329,25 @@
         <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8459,7 +8396,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8471,7 +8408,7 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8480,615 +8417,20 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9098,7 +8440,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
